--- a/biology/Médecine/1653_en_santé_et_médecine/1653_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1653_en_santé_et_médecine/1653_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1653_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1653_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1653 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1653_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1653_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Canada
-Arrivée de Marguerite Bourgeoys au Canada, venue pour ouvrir une école. À Montréal le 16 novembre, « elle ne trouve pas d’enfants d’âge scolaire à cause de la forte mortalité infantile »[1].
-Italie
-Marcello Malpighi (1628-1694) est reçu docteur en médecine et philosophie à l'Université de Bologne[2].</t>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Arrivée de Marguerite Bourgeoys au Canada, venue pour ouvrir une école. À Montréal le 16 novembre, « elle ne trouve pas d’enfants d’âge scolaire à cause de la forte mortalité infantile ».</t>
         </is>
       </c>
     </row>
@@ -526,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1653_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1653_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,12 +556,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Publications</t>
+          <t>Événements</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Armentarium chirurgicum du chirurgien allemand Johann  Schultes (1595-1645), publication posthume d'un album d'instruments de chirurgie de guerre[3].</t>
+          <t>Italie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Marcello Malpighi (1628-1694) est reçu docteur en médecine et philosophie à l'Université de Bologne.</t>
         </is>
       </c>
     </row>
@@ -556,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1653_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1653_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,14 +592,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Naissances</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>16 janvier : Johann Conrad Brunner (mort en 1727), médecin suisse[4].
-Date non précisée
-Sangyé Gyatso (mort en 1705), régent du Tibet qui a influé sur l’histoire tibétaine mais également sur le développement de la médecine et de l’astrologie[5].</t>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Armentarium chirurgicum du chirurgien allemand Johann  Schultes (1595-1645), publication posthume d'un album d'instruments de chirurgie de guerre.</t>
         </is>
       </c>
     </row>
@@ -588,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1653_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1653_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,13 +624,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Naissances</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>16 janvier : Johann Conrad Brunner (mort en 1727), médecin suisse.
+Date non précisée
+Sangyé Gyatso (mort en 1705), régent du Tibet qui a influé sur l’histoire tibétaine mais également sur le développement de la médecine et de l’astrologie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1653_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1653_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10 juillet :  Gabriel Naudé (né en 1600), médecin et polymathe français[6].
-25 octobre : Théophraste Renaudot (né en 1586), journaliste, médecin et philanthrope français[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 juillet :  Gabriel Naudé (né en 1600), médecin et polymathe français.
+25 octobre : Théophraste Renaudot (né en 1586), journaliste, médecin et philanthrope français.
 </t>
         </is>
       </c>
